--- a/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.275</v>
+        <v>0.409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.299</v>
+        <v>0.266</v>
       </c>
       <c r="D4" t="n">
-        <v>8.73</v>
+        <v>-34.96</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.211</v>
+        <v>0.483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206</v>
+        <v>0.297</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.37</v>
+        <v>-38.51</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.184</v>
+        <v>0.237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175</v>
+        <v>0.132</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.89</v>
+        <v>-44.3</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.144247185206041</v>
+        <v>2.099153191316873</v>
       </c>
       <c r="C4" t="n">
-        <v>1.853248531464487</v>
+        <v>1.749717373284511</v>
       </c>
       <c r="D4" t="n">
-        <v>-13.57</v>
+        <v>-16.65</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2022259626650467</v>
+        <v>0.1939348028982607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1889919348606659</v>
+        <v>0.2152438637802991</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.54</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>10.657</v>
       </c>
       <c r="D5" t="n">
         <v>-74.95999999999999</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.096275957219266</v>
+        <v>9.727670967065343</v>
       </c>
       <c r="C6" t="n">
-        <v>19.01490414020272</v>
+        <v>19.58786758766444</v>
       </c>
       <c r="D6" t="n">
-        <v>109.04</v>
+        <v>101.36</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5025005965340494</v>
+        <v>0.8807195631819025</v>
       </c>
       <c r="F6" t="n">
-        <v>2.110983072835082</v>
+        <v>1.747587637477143</v>
       </c>
       <c r="G6" t="n">
-        <v>320.1</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
